--- a/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSEN pt 3.xlsx_with_dialog_acts.xlsx
@@ -585,12 +585,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -889,12 +889,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2679,12 +2679,12 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2755,12 +2755,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
